--- a/pile6_sect_4_all.xlsx
+++ b/pile6_sect_4_all.xlsx
@@ -435,7 +435,7 @@
         <v>22.56833333333333</v>
       </c>
       <c r="C2">
-        <v>20.68666666666666</v>
+        <v>20.68666666666667</v>
       </c>
       <c r="D2">
         <v>32.05</v>
@@ -455,7 +455,7 @@
         <v>44062</v>
       </c>
       <c r="B3">
-        <v>23.36083333333334</v>
+        <v>23.36083333333333</v>
       </c>
       <c r="C3">
         <v>23.82041666666666</v>
@@ -504,10 +504,10 @@
         <v>26.31041666666667</v>
       </c>
       <c r="C5">
-        <v>29.84750000000001</v>
+        <v>29.8475</v>
       </c>
       <c r="D5">
-        <v>32.97499999999999</v>
+        <v>32.975</v>
       </c>
       <c r="E5">
         <v>19.36333333333333</v>
@@ -530,7 +530,7 @@
         <v>32.03208333333333</v>
       </c>
       <c r="D6">
-        <v>32.26625000000001</v>
+        <v>32.26625</v>
       </c>
       <c r="E6">
         <v>17.80791666666667</v>
@@ -570,16 +570,16 @@
         <v>44067</v>
       </c>
       <c r="B8">
-        <v>25.45875000000001</v>
+        <v>25.45875</v>
       </c>
       <c r="C8">
         <v>31.33166666666667</v>
       </c>
       <c r="D8">
-        <v>28.99458333333334</v>
+        <v>28.99458333333333</v>
       </c>
       <c r="E8">
-        <v>15.49416666666666</v>
+        <v>15.49416666666667</v>
       </c>
       <c r="F8">
         <v>81.625</v>
@@ -596,7 +596,7 @@
         <v>25.17125</v>
       </c>
       <c r="C9">
-        <v>30.39208333333334</v>
+        <v>30.39208333333333</v>
       </c>
       <c r="D9">
         <v>28.72041666666667</v>
@@ -691,10 +691,10 @@
         <v>27.77583333333333</v>
       </c>
       <c r="D13">
-        <v>27.40583333333334</v>
+        <v>27.40583333333333</v>
       </c>
       <c r="E13">
-        <v>13.90666666666666</v>
+        <v>13.90666666666667</v>
       </c>
       <c r="F13">
         <v>77</v>
@@ -731,16 +731,16 @@
         <v>44074</v>
       </c>
       <c r="B15">
-        <v>23.81166666666666</v>
+        <v>23.81166666666667</v>
       </c>
       <c r="C15">
         <v>27.4825</v>
       </c>
       <c r="D15">
-        <v>27.98083333333334</v>
+        <v>27.98083333333333</v>
       </c>
       <c r="E15">
-        <v>14.04916666666666</v>
+        <v>14.04916666666667</v>
       </c>
       <c r="F15">
         <v>73.5</v>
@@ -777,7 +777,7 @@
         <v>44076</v>
       </c>
       <c r="B17">
-        <v>23.26000000000001</v>
+        <v>23.26</v>
       </c>
       <c r="C17">
         <v>26.25041666666667</v>
@@ -803,7 +803,7 @@
         <v>23.37041666666667</v>
       </c>
       <c r="C18">
-        <v>26.33458333333334</v>
+        <v>26.33458333333333</v>
       </c>
       <c r="D18">
         <v>26.94541666666666</v>
@@ -823,7 +823,7 @@
         <v>44078</v>
       </c>
       <c r="B19">
-        <v>23.52125000000001</v>
+        <v>23.52125</v>
       </c>
       <c r="C19">
         <v>26.83833333333333</v>
@@ -861,7 +861,7 @@
         <v>85.41666666666667</v>
       </c>
       <c r="G20">
-        <v>4.400000000000001</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -869,10 +869,10 @@
         <v>44080</v>
       </c>
       <c r="B21">
-        <v>23.53416666666666</v>
+        <v>23.53416666666667</v>
       </c>
       <c r="C21">
-        <v>26.96374999999999</v>
+        <v>26.96375</v>
       </c>
       <c r="D21">
         <v>25.63625</v>
@@ -892,10 +892,10 @@
         <v>44081</v>
       </c>
       <c r="B22">
-        <v>23.64625000000001</v>
+        <v>23.64625</v>
       </c>
       <c r="C22">
-        <v>26.46625000000001</v>
+        <v>26.46625</v>
       </c>
       <c r="D22">
         <v>25.95833333333333</v>
@@ -964,10 +964,10 @@
         <v>20.36708333333333</v>
       </c>
       <c r="C25">
-        <v>25.16249999999999</v>
+        <v>25.1625</v>
       </c>
       <c r="D25">
-        <v>24.33041666666668</v>
+        <v>24.33041666666666</v>
       </c>
       <c r="E25">
         <v>10.44916666666667</v>
@@ -987,13 +987,13 @@
         <v>14.05333333333333</v>
       </c>
       <c r="C26">
-        <v>19.57458333333334</v>
+        <v>19.57458333333333</v>
       </c>
       <c r="D26">
         <v>15.57</v>
       </c>
       <c r="E26">
-        <v>9.641958333333331</v>
+        <v>9.641958333333333</v>
       </c>
       <c r="F26">
         <v>83.04166666666667</v>
@@ -1045,7 +1045,7 @@
         <v>82.33333333333333</v>
       </c>
       <c r="G28">
-        <v>9.799999999999999</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1108,7 +1108,7 @@
         <v>12.83708333333333</v>
       </c>
       <c r="E31">
-        <v>9.808458333333334</v>
+        <v>9.808458333333332</v>
       </c>
       <c r="F31">
         <v>93.45833333333333</v>
@@ -1154,7 +1154,7 @@
         <v>16.73166666666667</v>
       </c>
       <c r="E33">
-        <v>8.436250000000001</v>
+        <v>8.436249999999999</v>
       </c>
       <c r="F33">
         <v>79.875</v>
@@ -1171,7 +1171,7 @@
         <v>10.40208333333333</v>
       </c>
       <c r="C34">
-        <v>13.01958333333333</v>
+        <v>13.01958333333334</v>
       </c>
       <c r="D34">
         <v>11.28125</v>
@@ -1191,7 +1191,7 @@
         <v>44094</v>
       </c>
       <c r="B35">
-        <v>9.414166666666668</v>
+        <v>9.414166666666667</v>
       </c>
       <c r="C35">
         <v>11.65333333333333</v>
@@ -1200,7 +1200,7 @@
         <v>9.254166666666666</v>
       </c>
       <c r="E35">
-        <v>8.898416666666664</v>
+        <v>8.898416666666668</v>
       </c>
       <c r="F35">
         <v>78.875</v>
@@ -1217,10 +1217,10 @@
         <v>8.305833333333334</v>
       </c>
       <c r="C36">
-        <v>9.237083333333334</v>
+        <v>9.237083333333333</v>
       </c>
       <c r="D36">
-        <v>8.942083333333331</v>
+        <v>8.942083333333334</v>
       </c>
       <c r="E36">
         <v>10.260375</v>
@@ -1246,7 +1246,7 @@
         <v>8.8225</v>
       </c>
       <c r="E37">
-        <v>10.81533333333334</v>
+        <v>10.81533333333333</v>
       </c>
       <c r="F37">
         <v>70.125</v>
@@ -1292,7 +1292,7 @@
         <v>12.85291666666667</v>
       </c>
       <c r="E39">
-        <v>12.02708333333334</v>
+        <v>12.02708333333333</v>
       </c>
       <c r="F39">
         <v>94.66666666666667</v>
@@ -1378,7 +1378,7 @@
         <v>16.25958333333334</v>
       </c>
       <c r="C43">
-        <v>16.33541666666666</v>
+        <v>16.33541666666667</v>
       </c>
       <c r="D43">
         <v>19.7575</v>
@@ -1398,7 +1398,7 @@
         <v>44103</v>
       </c>
       <c r="B44">
-        <v>17.80208333333334</v>
+        <v>17.80208333333333</v>
       </c>
       <c r="C44">
         <v>19.36416666666667</v>
@@ -1430,7 +1430,7 @@
         <v>24.24208333333334</v>
       </c>
       <c r="E45">
-        <v>11.40041666666666</v>
+        <v>11.40041666666667</v>
       </c>
       <c r="F45">
         <v>91.41666666666667</v>
@@ -1447,10 +1447,10 @@
         <v>20.88333333333333</v>
       </c>
       <c r="C46">
-        <v>24.42791666666667</v>
+        <v>24.42791666666666</v>
       </c>
       <c r="D46">
-        <v>25.92833333333334</v>
+        <v>25.92833333333333</v>
       </c>
       <c r="E46">
         <v>11.74791666666667</v>
@@ -1476,7 +1476,7 @@
         <v>26.50125</v>
       </c>
       <c r="E47">
-        <v>10.73166666666666</v>
+        <v>10.73166666666667</v>
       </c>
       <c r="F47">
         <v>88.33333333333333</v>
@@ -1519,7 +1519,7 @@
         <v>25.08416666666666</v>
       </c>
       <c r="D49">
-        <v>26.15041666666666</v>
+        <v>26.15041666666667</v>
       </c>
       <c r="E49">
         <v>11.67916666666667</v>
@@ -1562,7 +1562,7 @@
         <v>18.25541666666667</v>
       </c>
       <c r="C51">
-        <v>23.71291666666666</v>
+        <v>23.71291666666667</v>
       </c>
       <c r="D51">
         <v>25.32916666666667</v>
@@ -1585,13 +1585,13 @@
         <v>17.53916666666667</v>
       </c>
       <c r="C52">
-        <v>22.95500000000001</v>
+        <v>22.955</v>
       </c>
       <c r="D52">
         <v>23.45875</v>
       </c>
       <c r="E52">
-        <v>11.91708333333334</v>
+        <v>11.91708333333333</v>
       </c>
       <c r="F52">
         <v>90.29166666666667</v>
@@ -1611,7 +1611,7 @@
         <v>22.27375</v>
       </c>
       <c r="D53">
-        <v>21.49583333333334</v>
+        <v>21.49583333333333</v>
       </c>
       <c r="E53">
         <v>11.76916666666667</v>
@@ -1628,7 +1628,7 @@
         <v>44113</v>
       </c>
       <c r="B54">
-        <v>18.36916666666666</v>
+        <v>18.36916666666667</v>
       </c>
       <c r="C54">
         <v>22.34208333333333</v>
@@ -1654,13 +1654,13 @@
         <v>18.99916666666667</v>
       </c>
       <c r="C55">
-        <v>22.29666666666666</v>
+        <v>22.29666666666667</v>
       </c>
       <c r="D55">
         <v>23.10333333333334</v>
       </c>
       <c r="E55">
-        <v>9.957500000000001</v>
+        <v>9.9575</v>
       </c>
       <c r="F55">
         <v>82.29166666666667</v>
@@ -1683,13 +1683,13 @@
         <v>25.10708333333334</v>
       </c>
       <c r="E56">
-        <v>8.823416666666665</v>
+        <v>8.823416666666667</v>
       </c>
       <c r="F56">
         <v>93.79166666666667</v>
       </c>
       <c r="G56">
-        <v>5.800000000000001</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1700,13 +1700,13 @@
         <v>19.96291666666667</v>
       </c>
       <c r="C57">
-        <v>22.20416666666666</v>
+        <v>22.20416666666667</v>
       </c>
       <c r="D57">
         <v>24.67166666666667</v>
       </c>
       <c r="E57">
-        <v>8.284124999999998</v>
+        <v>8.284125</v>
       </c>
       <c r="F57">
         <v>95.08333333333333</v>
@@ -1726,7 +1726,7 @@
         <v>21.71375</v>
       </c>
       <c r="D58">
-        <v>23.38208333333334</v>
+        <v>23.38208333333333</v>
       </c>
       <c r="E58">
         <v>8.141958333333333</v>
@@ -1743,7 +1743,7 @@
         <v>44118</v>
       </c>
       <c r="B59">
-        <v>20.16208333333334</v>
+        <v>20.16208333333333</v>
       </c>
       <c r="C59">
         <v>21.98875</v>
@@ -1752,7 +1752,7 @@
         <v>20.85875</v>
       </c>
       <c r="E59">
-        <v>5.322166666666666</v>
+        <v>5.322166666666667</v>
       </c>
       <c r="F59">
         <v>87.375</v>
@@ -1821,7 +1821,7 @@
         <v>11.07041666666667</v>
       </c>
       <c r="E62">
-        <v>4.374166666666666</v>
+        <v>4.374166666666667</v>
       </c>
       <c r="F62">
         <v>91.95833333333333</v>
@@ -1841,7 +1841,7 @@
         <v>15.1225</v>
       </c>
       <c r="D63">
-        <v>8.271958333333332</v>
+        <v>8.271958333333334</v>
       </c>
       <c r="E63">
         <v>3.34625</v>
@@ -1861,10 +1861,10 @@
         <v>11.17458333333333</v>
       </c>
       <c r="C64">
-        <v>17.00958333333333</v>
+        <v>17.00958333333334</v>
       </c>
       <c r="D64">
-        <v>13.41166666666666</v>
+        <v>13.41166666666667</v>
       </c>
       <c r="E64">
         <v>1.681791666666667</v>
@@ -1890,7 +1890,7 @@
         <v>13.48708333333333</v>
       </c>
       <c r="E65">
-        <v>0.1062916666666666</v>
+        <v>0.1062916666666667</v>
       </c>
       <c r="F65">
         <v>85.5</v>
@@ -1904,7 +1904,7 @@
         <v>44125</v>
       </c>
       <c r="B66">
-        <v>9.480833333333335</v>
+        <v>9.480833333333333</v>
       </c>
       <c r="C66">
         <v>15.03333333333333</v>
@@ -1913,13 +1913,13 @@
         <v>14.15958333333333</v>
       </c>
       <c r="E66">
-        <v>0.5442499999999999</v>
+        <v>0.54425</v>
       </c>
       <c r="F66">
         <v>87.125</v>
       </c>
       <c r="G66">
-        <v>5.400000000000001</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1930,13 +1930,13 @@
         <v>9.965833333333334</v>
       </c>
       <c r="C67">
-        <v>15.59708333333334</v>
+        <v>15.59708333333333</v>
       </c>
       <c r="D67">
         <v>17.00166666666667</v>
       </c>
       <c r="E67">
-        <v>4.699583333333332</v>
+        <v>4.699583333333334</v>
       </c>
       <c r="F67">
         <v>95.83333333333333</v>
@@ -1973,16 +1973,16 @@
         <v>44128</v>
       </c>
       <c r="B69">
-        <v>7.843458333333334</v>
+        <v>7.843458333333333</v>
       </c>
       <c r="C69">
         <v>10.4175</v>
       </c>
       <c r="D69">
-        <v>7.302874999999999</v>
+        <v>7.302875</v>
       </c>
       <c r="E69">
-        <v>1.863583333333334</v>
+        <v>1.863583333333333</v>
       </c>
       <c r="F69">
         <v>83.20833333333333</v>
@@ -1996,10 +1996,10 @@
         <v>44129</v>
       </c>
       <c r="B70">
-        <v>7.823499999999998</v>
+        <v>7.8235</v>
       </c>
       <c r="C70">
-        <v>9.045833333333334</v>
+        <v>9.045833333333333</v>
       </c>
       <c r="D70">
         <v>6.837125</v>
@@ -2022,13 +2022,13 @@
         <v>8.497083333333334</v>
       </c>
       <c r="C71">
-        <v>11.20833333333334</v>
+        <v>11.20833333333333</v>
       </c>
       <c r="D71">
         <v>13.90791666666667</v>
       </c>
       <c r="E71">
-        <v>7.442125000000001</v>
+        <v>7.442125</v>
       </c>
       <c r="F71">
         <v>91.16666666666667</v>
@@ -2042,7 +2042,7 @@
         <v>44131</v>
       </c>
       <c r="B72">
-        <v>8.703333333333335</v>
+        <v>8.703333333333333</v>
       </c>
       <c r="C72">
         <v>12.645</v>
@@ -2091,7 +2091,7 @@
         <v>8.032999999999999</v>
       </c>
       <c r="C74">
-        <v>11.14333333333334</v>
+        <v>11.14333333333333</v>
       </c>
       <c r="D74">
         <v>13.99125</v>
@@ -2134,16 +2134,16 @@
         <v>44135</v>
       </c>
       <c r="B76">
-        <v>9.102083333333331</v>
+        <v>9.102083333333333</v>
       </c>
       <c r="C76">
-        <v>12.53791666666666</v>
+        <v>12.53791666666667</v>
       </c>
       <c r="D76">
         <v>13.60625</v>
       </c>
       <c r="E76">
-        <v>0.06470833333333344</v>
+        <v>0.06470833333333334</v>
       </c>
       <c r="F76">
         <v>91.04166666666667</v>
@@ -2166,7 +2166,7 @@
         <v>15.35791666666667</v>
       </c>
       <c r="E77">
-        <v>5.111250000000001</v>
+        <v>5.11125</v>
       </c>
       <c r="F77">
         <v>88.41666666666667</v>
@@ -2186,10 +2186,10 @@
         <v>16.4</v>
       </c>
       <c r="D78">
-        <v>10.88083333333334</v>
+        <v>10.88083333333333</v>
       </c>
       <c r="E78">
-        <v>4.344749999999999</v>
+        <v>4.34475</v>
       </c>
       <c r="F78">
         <v>85.30434782608695</v>
@@ -2206,13 +2206,13 @@
         <v>11.41333333333333</v>
       </c>
       <c r="C79">
-        <v>16.67041666666667</v>
+        <v>16.67041666666666</v>
       </c>
       <c r="D79">
         <v>10.832375</v>
       </c>
       <c r="E79">
-        <v>8.991499999999998</v>
+        <v>8.9915</v>
       </c>
       <c r="F79">
         <v>88.70833333333333</v>
@@ -2255,10 +2255,10 @@
         <v>10.444875</v>
       </c>
       <c r="D81">
-        <v>11.43541666666666</v>
+        <v>11.43541666666667</v>
       </c>
       <c r="E81">
-        <v>5.708000000000001</v>
+        <v>5.707999999999999</v>
       </c>
       <c r="F81">
         <v>75.875</v>
@@ -2275,7 +2275,7 @@
         <v>6.365625000000001</v>
       </c>
       <c r="C82">
-        <v>6.443749999999999</v>
+        <v>6.443750000000001</v>
       </c>
       <c r="D82">
         <v>6.440916666666666</v>
@@ -2304,7 +2304,7 @@
         <v>4.982583333333333</v>
       </c>
       <c r="E83">
-        <v>8.343624999999999</v>
+        <v>8.343625000000001</v>
       </c>
       <c r="F83">
         <v>71.25</v>
@@ -2321,7 +2321,7 @@
         <v>5.246166666666666</v>
       </c>
       <c r="C84">
-        <v>5.216875000000001</v>
+        <v>5.216875</v>
       </c>
       <c r="D84">
         <v>5.472291666666667</v>
@@ -2347,7 +2347,7 @@
         <v>5.968541666666667</v>
       </c>
       <c r="D85">
-        <v>6.211416666666666</v>
+        <v>6.211416666666667</v>
       </c>
       <c r="E85">
         <v>1.982708333333333</v>
@@ -2370,10 +2370,10 @@
         <v>6.16375</v>
       </c>
       <c r="D86">
-        <v>4.609249999999999</v>
+        <v>4.60925</v>
       </c>
       <c r="E86">
-        <v>-0.8717916666666666</v>
+        <v>-0.8717916666666667</v>
       </c>
       <c r="F86">
         <v>85.45833333333333</v>
@@ -2390,7 +2390,7 @@
         <v>5.879208333333334</v>
       </c>
       <c r="C87">
-        <v>6.726666666666669</v>
+        <v>6.726666666666667</v>
       </c>
       <c r="D87">
         <v>4.55725</v>
@@ -2410,7 +2410,7 @@
         <v>44147</v>
       </c>
       <c r="B88">
-        <v>6.375374999999999</v>
+        <v>6.375375000000001</v>
       </c>
       <c r="C88">
         <v>7.215333333333334</v>
@@ -2439,10 +2439,10 @@
         <v>7.524875000000001</v>
       </c>
       <c r="D89">
-        <v>5.800541666666668</v>
+        <v>5.800541666666667</v>
       </c>
       <c r="E89">
-        <v>3.387333333333333</v>
+        <v>3.387333333333334</v>
       </c>
       <c r="F89">
         <v>85.83333333333333</v>
@@ -2456,7 +2456,7 @@
         <v>44149</v>
       </c>
       <c r="B90">
-        <v>7.433791666666665</v>
+        <v>7.433791666666667</v>
       </c>
       <c r="C90">
         <v>8.315375000000001</v>
@@ -2465,7 +2465,7 @@
         <v>9.117875</v>
       </c>
       <c r="E90">
-        <v>2.419041666666666</v>
+        <v>2.419041666666667</v>
       </c>
       <c r="F90">
         <v>86.54166666666667</v>
@@ -2482,13 +2482,13 @@
         <v>8.40075</v>
       </c>
       <c r="C91">
-        <v>10.05583333333334</v>
+        <v>10.05583333333333</v>
       </c>
       <c r="D91">
         <v>12.1075</v>
       </c>
       <c r="E91">
-        <v>1.449333333333334</v>
+        <v>1.449333333333333</v>
       </c>
       <c r="F91">
         <v>86.04166666666667</v>
@@ -2525,7 +2525,7 @@
         <v>44152</v>
       </c>
       <c r="B93">
-        <v>9.907499999999999</v>
+        <v>9.907500000000001</v>
       </c>
       <c r="C93">
         <v>13.54333333333333</v>
@@ -2534,13 +2534,13 @@
         <v>7.331166666666667</v>
       </c>
       <c r="E93">
-        <v>3.076833333333334</v>
+        <v>3.076833333333333</v>
       </c>
       <c r="F93">
         <v>95.08333333333333</v>
       </c>
       <c r="G93">
-        <v>4.800000000000001</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2548,13 +2548,13 @@
         <v>44153</v>
       </c>
       <c r="B94">
-        <v>9.459166666666665</v>
+        <v>9.459166666666667</v>
       </c>
       <c r="C94">
         <v>12.28833333333333</v>
       </c>
       <c r="D94">
-        <v>9.736416666666665</v>
+        <v>9.736416666666667</v>
       </c>
       <c r="E94">
         <v>4.938125</v>
@@ -2580,7 +2580,7 @@
         <v>10.59833333333333</v>
       </c>
       <c r="E95">
-        <v>7.258541666666669</v>
+        <v>7.258541666666667</v>
       </c>
       <c r="F95">
         <v>84.95833333333333</v>
@@ -2620,7 +2620,7 @@
         <v>6.274999999999999</v>
       </c>
       <c r="C97">
-        <v>6.354791666666665</v>
+        <v>6.354791666666667</v>
       </c>
       <c r="D97">
         <v>8.549333333333333</v>
@@ -2632,7 +2632,7 @@
         <v>91.33333333333333</v>
       </c>
       <c r="G97">
-        <v>3.399999999999999</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2640,7 +2640,7 @@
         <v>44157</v>
       </c>
       <c r="B98">
-        <v>6.734333333333336</v>
+        <v>6.734333333333333</v>
       </c>
       <c r="C98">
         <v>8.1225</v>
@@ -2649,7 +2649,7 @@
         <v>11.68541666666667</v>
       </c>
       <c r="E98">
-        <v>2.580124999999999</v>
+        <v>2.580125</v>
       </c>
       <c r="F98">
         <v>91.625</v>
@@ -2669,7 +2669,7 @@
         <v>8.101458333333333</v>
       </c>
       <c r="D99">
-        <v>8.922416666666665</v>
+        <v>8.922416666666667</v>
       </c>
       <c r="E99">
         <v>2.862166666666667</v>
@@ -2709,10 +2709,10 @@
         <v>44160</v>
       </c>
       <c r="B101">
-        <v>6.423916666666664</v>
+        <v>6.423916666666667</v>
       </c>
       <c r="C101">
-        <v>7.502666666666667</v>
+        <v>7.502666666666666</v>
       </c>
       <c r="D101">
         <v>4.958375</v>
@@ -2732,13 +2732,13 @@
         <v>44161</v>
       </c>
       <c r="B102">
-        <v>6.345208333333336</v>
+        <v>6.345208333333333</v>
       </c>
       <c r="C102">
-        <v>7.958166666666664</v>
+        <v>7.958166666666667</v>
       </c>
       <c r="D102">
-        <v>7.447083333333332</v>
+        <v>7.447083333333333</v>
       </c>
       <c r="E102">
         <v>1.050791666666667</v>
@@ -2747,7 +2747,7 @@
         <v>91.83333333333333</v>
       </c>
       <c r="G102">
-        <v>7.200000000000001</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2755,13 +2755,13 @@
         <v>44162</v>
       </c>
       <c r="B103">
-        <v>5.331125000000001</v>
+        <v>5.331125</v>
       </c>
       <c r="C103">
         <v>7.89825</v>
       </c>
       <c r="D103">
-        <v>7.012791666666669</v>
+        <v>7.012791666666666</v>
       </c>
       <c r="E103">
         <v>0.3242916666666667</v>
@@ -2781,7 +2781,7 @@
         <v>5.446916666666667</v>
       </c>
       <c r="C104">
-        <v>8.574999999999998</v>
+        <v>8.575000000000001</v>
       </c>
       <c r="D104">
         <v>10.56166666666667</v>
@@ -2827,7 +2827,7 @@
         <v>5.952166666666667</v>
       </c>
       <c r="C106">
-        <v>9.330000000000002</v>
+        <v>9.33</v>
       </c>
       <c r="D106">
         <v>10.90583333333333</v>
@@ -2847,7 +2847,7 @@
         <v>44166</v>
       </c>
       <c r="B107">
-        <v>6.163541666666668</v>
+        <v>6.163541666666667</v>
       </c>
       <c r="C107">
         <v>9.4</v>
@@ -2873,13 +2873,13 @@
         <v>6.096</v>
       </c>
       <c r="C108">
-        <v>8.142416666666666</v>
+        <v>8.142416666666668</v>
       </c>
       <c r="D108">
         <v>10.40541666666667</v>
       </c>
       <c r="E108">
-        <v>0.04624999999999996</v>
+        <v>0.04625000000000001</v>
       </c>
       <c r="F108">
         <v>91</v>
@@ -2916,7 +2916,7 @@
         <v>44169</v>
       </c>
       <c r="B110">
-        <v>6.892041666666668</v>
+        <v>6.892041666666667</v>
       </c>
       <c r="C110">
         <v>9.682916666666666</v>
@@ -2925,7 +2925,7 @@
         <v>7.636041666666666</v>
       </c>
       <c r="E110">
-        <v>-0.8550833333333331</v>
+        <v>-0.8550833333333333</v>
       </c>
       <c r="F110">
         <v>84.875</v>
@@ -2939,7 +2939,7 @@
         <v>44170</v>
       </c>
       <c r="B111">
-        <v>7.169249999999999</v>
+        <v>7.169250000000001</v>
       </c>
       <c r="C111">
         <v>9.765416666666667</v>
@@ -2962,7 +2962,7 @@
         <v>44171</v>
       </c>
       <c r="B112">
-        <v>7.466416666666667</v>
+        <v>7.466416666666666</v>
       </c>
       <c r="C112">
         <v>10.2825</v>
@@ -2971,7 +2971,7 @@
         <v>5.627958333333333</v>
       </c>
       <c r="E112">
-        <v>2.182333333333334</v>
+        <v>2.182333333333333</v>
       </c>
       <c r="F112">
         <v>96.70833333333333</v>
@@ -2991,7 +2991,7 @@
         <v>11.0025</v>
       </c>
       <c r="D113">
-        <v>4.690416666666668</v>
+        <v>4.690416666666667</v>
       </c>
       <c r="E113">
         <v>0.6099130434782609</v>
@@ -3040,7 +3040,7 @@
         <v>6.246083333333334</v>
       </c>
       <c r="E115">
-        <v>-3.974291666666668</v>
+        <v>-3.974291666666666</v>
       </c>
       <c r="F115">
         <v>83.125</v>
@@ -3057,13 +3057,13 @@
         <v>8.249166666666666</v>
       </c>
       <c r="C116">
-        <v>9.730833333333331</v>
+        <v>9.730833333333333</v>
       </c>
       <c r="D116">
         <v>5.675625</v>
       </c>
       <c r="E116">
-        <v>-3.702916666666666</v>
+        <v>-3.702916666666667</v>
       </c>
       <c r="F116">
         <v>86.33333333333333</v>
@@ -3077,16 +3077,16 @@
         <v>44176</v>
       </c>
       <c r="B117">
-        <v>8.143750000000002</v>
+        <v>8.143749999999999</v>
       </c>
       <c r="C117">
-        <v>9.267499999999998</v>
+        <v>9.2675</v>
       </c>
       <c r="D117">
-        <v>6.443583333333333</v>
+        <v>6.443583333333334</v>
       </c>
       <c r="E117">
-        <v>-4.134375000000001</v>
+        <v>-4.134374999999999</v>
       </c>
       <c r="F117">
         <v>87.83333333333333</v>
@@ -3100,13 +3100,13 @@
         <v>44177</v>
       </c>
       <c r="B118">
-        <v>8.042499999999997</v>
+        <v>8.042499999999999</v>
       </c>
       <c r="C118">
-        <v>8.982499999999996</v>
+        <v>8.9825</v>
       </c>
       <c r="D118">
-        <v>7.182708333333331</v>
+        <v>7.182708333333333</v>
       </c>
       <c r="E118">
         <v>-1.885</v>
@@ -3123,16 +3123,16 @@
         <v>44178</v>
       </c>
       <c r="B119">
-        <v>7.990041666666667</v>
+        <v>7.990041666666666</v>
       </c>
       <c r="C119">
-        <v>8.792916666666665</v>
+        <v>8.792916666666667</v>
       </c>
       <c r="D119">
         <v>6.832208333333334</v>
       </c>
       <c r="E119">
-        <v>-2.910874999999999</v>
+        <v>-2.910875</v>
       </c>
       <c r="F119">
         <v>89.75</v>
@@ -3169,16 +3169,16 @@
         <v>44180</v>
       </c>
       <c r="B121">
-        <v>7.910166666666668</v>
+        <v>7.910166666666666</v>
       </c>
       <c r="C121">
-        <v>7.952166666666666</v>
+        <v>7.952166666666667</v>
       </c>
       <c r="D121">
-        <v>6.539791666666669</v>
+        <v>6.539791666666667</v>
       </c>
       <c r="E121">
-        <v>-2.689583333333334</v>
+        <v>-2.689583333333333</v>
       </c>
       <c r="F121">
         <v>91.08333333333333</v>
@@ -3215,7 +3215,7 @@
         <v>44182</v>
       </c>
       <c r="B123">
-        <v>7.967041666666666</v>
+        <v>7.967041666666667</v>
       </c>
       <c r="C123">
         <v>8.018375000000001</v>
@@ -3238,10 +3238,10 @@
         <v>44183</v>
       </c>
       <c r="B124">
-        <v>7.664541666666666</v>
+        <v>7.664541666666667</v>
       </c>
       <c r="C124">
-        <v>8.187083333333335</v>
+        <v>8.187083333333334</v>
       </c>
       <c r="D124">
         <v>7.711625000000001</v>
@@ -3264,13 +3264,13 @@
         <v>7.259916666666666</v>
       </c>
       <c r="C125">
-        <v>8.179166666666665</v>
+        <v>8.179166666666667</v>
       </c>
       <c r="D125">
         <v>9.258333333333333</v>
       </c>
       <c r="E125">
-        <v>-1.485458333333333</v>
+        <v>-1.485458333333334</v>
       </c>
       <c r="F125">
         <v>94.95833333333333</v>
@@ -3284,7 +3284,7 @@
         <v>44185</v>
       </c>
       <c r="B126">
-        <v>7.129625000000001</v>
+        <v>7.129625</v>
       </c>
       <c r="C126">
         <v>7.893416666666667</v>
@@ -3307,10 +3307,10 @@
         <v>44186</v>
       </c>
       <c r="B127">
-        <v>6.906875</v>
+        <v>6.906874999999999</v>
       </c>
       <c r="C127">
-        <v>7.421916666666668</v>
+        <v>7.421916666666667</v>
       </c>
       <c r="D127">
         <v>9.917916666666667</v>
@@ -3330,13 +3330,13 @@
         <v>44187</v>
       </c>
       <c r="B128">
-        <v>6.639875000000003</v>
+        <v>6.639875</v>
       </c>
       <c r="C128">
-        <v>7.337874999999998</v>
+        <v>7.337875</v>
       </c>
       <c r="D128">
-        <v>9.263750000000002</v>
+        <v>9.26375</v>
       </c>
       <c r="E128">
         <v>2.614416666666667</v>
@@ -3353,16 +3353,16 @@
         <v>44188</v>
       </c>
       <c r="B129">
-        <v>6.640458333333332</v>
+        <v>6.640458333333334</v>
       </c>
       <c r="C129">
-        <v>7.758791666666666</v>
+        <v>7.758791666666667</v>
       </c>
       <c r="D129">
         <v>9.36875</v>
       </c>
       <c r="E129">
-        <v>-0.02837500000000002</v>
+        <v>-0.02837499999999999</v>
       </c>
       <c r="F129">
         <v>94.75</v>
@@ -3376,16 +3376,16 @@
         <v>44189</v>
       </c>
       <c r="B130">
-        <v>6.513166666666668</v>
+        <v>6.513166666666667</v>
       </c>
       <c r="C130">
-        <v>7.868000000000001</v>
+        <v>7.867999999999999</v>
       </c>
       <c r="D130">
-        <v>9.281666666666668</v>
+        <v>9.281666666666666</v>
       </c>
       <c r="E130">
-        <v>-0.5793749999999999</v>
+        <v>-0.579375</v>
       </c>
       <c r="F130">
         <v>96.375</v>
@@ -3399,10 +3399,10 @@
         <v>44190</v>
       </c>
       <c r="B131">
-        <v>6.439416666666667</v>
+        <v>6.439416666666666</v>
       </c>
       <c r="C131">
-        <v>8.044250000000002</v>
+        <v>8.04425</v>
       </c>
       <c r="D131">
         <v>8.497083333333334</v>
@@ -3425,7 +3425,7 @@
         <v>6.35475</v>
       </c>
       <c r="C132">
-        <v>8.492500000000001</v>
+        <v>8.4925</v>
       </c>
       <c r="D132">
         <v>5.636208333333333</v>
@@ -3445,16 +3445,16 @@
         <v>44192</v>
       </c>
       <c r="B133">
-        <v>6.207041666666665</v>
+        <v>6.207041666666666</v>
       </c>
       <c r="C133">
-        <v>8.269166666666665</v>
+        <v>8.269166666666667</v>
       </c>
       <c r="D133">
-        <v>6.145791666666668</v>
+        <v>6.145791666666667</v>
       </c>
       <c r="E133">
-        <v>-3.602708333333333</v>
+        <v>-3.602708333333334</v>
       </c>
       <c r="F133">
         <v>89.83333333333333</v>
@@ -3474,7 +3474,7 @@
         <v>7.938</v>
       </c>
       <c r="D134">
-        <v>6.385083333333331</v>
+        <v>6.385083333333333</v>
       </c>
       <c r="E134">
         <v>-2.078041666666667</v>
@@ -3497,7 +3497,7 @@
         <v>7.765000000000001</v>
       </c>
       <c r="D135">
-        <v>7.548458333333335</v>
+        <v>7.548458333333333</v>
       </c>
       <c r="E135">
         <v>-1.223208333333333</v>
@@ -3517,10 +3517,10 @@
         <v>4.744083333333333</v>
       </c>
       <c r="C136">
-        <v>7.261958333333335</v>
+        <v>7.261958333333333</v>
       </c>
       <c r="D136">
-        <v>8.343750000000002</v>
+        <v>8.34375</v>
       </c>
       <c r="E136">
         <v>-1.097375</v>
@@ -3537,16 +3537,16 @@
         <v>44196</v>
       </c>
       <c r="B137">
-        <v>4.619999999999999</v>
+        <v>4.62</v>
       </c>
       <c r="C137">
-        <v>7.134583333333334</v>
+        <v>7.134583333333333</v>
       </c>
       <c r="D137">
-        <v>7.399541666666668</v>
+        <v>7.399541666666667</v>
       </c>
       <c r="E137">
-        <v>0.6207083333333334</v>
+        <v>0.6207083333333333</v>
       </c>
       <c r="F137">
         <v>94.16666666666667</v>
@@ -3566,7 +3566,7 @@
         <v>7.091375</v>
       </c>
       <c r="D138">
-        <v>7.132958333333335</v>
+        <v>7.132958333333334</v>
       </c>
       <c r="E138">
         <v>-0.5305416666666667</v>
@@ -3589,7 +3589,7 @@
         <v>7.066166666666667</v>
       </c>
       <c r="D139">
-        <v>6.842333333333332</v>
+        <v>6.842333333333333</v>
       </c>
       <c r="E139">
         <v>-1.51575</v>
@@ -3612,7 +3612,7 @@
         <v>7.039958333333334</v>
       </c>
       <c r="D140">
-        <v>6.436416666666667</v>
+        <v>6.436416666666666</v>
       </c>
       <c r="E140">
         <v>-2.420791666666667</v>
@@ -3629,10 +3629,10 @@
         <v>44200</v>
       </c>
       <c r="B141">
-        <v>5.060833333333332</v>
+        <v>5.060833333333334</v>
       </c>
       <c r="C141">
-        <v>6.866166666666666</v>
+        <v>6.866166666666667</v>
       </c>
       <c r="D141">
         <v>6.232333333333333</v>
@@ -3658,7 +3658,7 @@
         <v>6.320166666666666</v>
       </c>
       <c r="D142">
-        <v>6.054458333333332</v>
+        <v>6.054458333333333</v>
       </c>
       <c r="E142">
         <v>-10.69083333333333</v>
@@ -3675,13 +3675,13 @@
         <v>44202</v>
       </c>
       <c r="B143">
-        <v>5.191458333333332</v>
+        <v>5.191458333333333</v>
       </c>
       <c r="C143">
         <v>5.673875</v>
       </c>
       <c r="D143">
-        <v>6.351958333333335</v>
+        <v>6.351958333333333</v>
       </c>
       <c r="E143">
         <v>-7.645208333333334</v>
@@ -3701,13 +3701,13 @@
         <v>5.247875</v>
       </c>
       <c r="C144">
-        <v>5.615916666666666</v>
+        <v>5.615916666666667</v>
       </c>
       <c r="D144">
         <v>6.295500000000001</v>
       </c>
       <c r="E144">
-        <v>-6.892750000000002</v>
+        <v>-6.892749999999999</v>
       </c>
       <c r="F144">
         <v>90.375</v>
@@ -3744,10 +3744,10 @@
         <v>44205</v>
       </c>
       <c r="B146">
-        <v>5.115333333333332</v>
+        <v>5.115333333333333</v>
       </c>
       <c r="C146">
-        <v>5.425166666666666</v>
+        <v>5.425166666666667</v>
       </c>
       <c r="D146">
         <v>5.894583333333333</v>
@@ -3770,7 +3770,7 @@
         <v>5.025708333333333</v>
       </c>
       <c r="C147">
-        <v>5.101458333333334</v>
+        <v>5.101458333333333</v>
       </c>
       <c r="D147">
         <v>5.523791666666667</v>
@@ -3793,13 +3793,13 @@
         <v>4.838625</v>
       </c>
       <c r="C148">
-        <v>5.258500000000001</v>
+        <v>5.2585</v>
       </c>
       <c r="D148">
         <v>6.140625</v>
       </c>
       <c r="E148">
-        <v>-9.769166666666669</v>
+        <v>-9.769166666666667</v>
       </c>
       <c r="F148">
         <v>86.75</v>
@@ -3842,7 +3842,7 @@
         <v>5.928958333333333</v>
       </c>
       <c r="D150">
-        <v>3.665249999999999</v>
+        <v>3.66525</v>
       </c>
       <c r="E150">
         <v>-18.23</v>
@@ -3859,13 +3859,13 @@
         <v>44210</v>
       </c>
       <c r="B151">
-        <v>3.495291666666666</v>
+        <v>3.495291666666667</v>
       </c>
       <c r="C151">
         <v>5.439375000000001</v>
       </c>
       <c r="D151">
-        <v>3.632375000000001</v>
+        <v>3.632375</v>
       </c>
       <c r="E151">
         <v>-23.07625</v>
@@ -3882,10 +3882,10 @@
         <v>44211</v>
       </c>
       <c r="B152">
-        <v>3.294708333333334</v>
+        <v>3.294708333333333</v>
       </c>
       <c r="C152">
-        <v>4.153750000000001</v>
+        <v>4.15375</v>
       </c>
       <c r="D152">
         <v>4.576958333333333</v>
@@ -3908,7 +3908,7 @@
         <v>3.366916666666667</v>
       </c>
       <c r="C153">
-        <v>3.490875000000001</v>
+        <v>3.490875</v>
       </c>
       <c r="D153">
         <v>4.385291666666666</v>
@@ -3928,7 +3928,7 @@
         <v>44213</v>
       </c>
       <c r="B154">
-        <v>3.533374999999999</v>
+        <v>3.533375</v>
       </c>
       <c r="C154">
         <v>3.176625</v>
@@ -3957,7 +3957,7 @@
         <v>2.932166666666667</v>
       </c>
       <c r="D155">
-        <v>6.160708333333331</v>
+        <v>6.160708333333333</v>
       </c>
       <c r="E155">
         <v>-5.680083333333333</v>
@@ -3977,13 +3977,13 @@
         <v>3.814791666666667</v>
       </c>
       <c r="C156">
-        <v>3.002291666666666</v>
+        <v>3.002291666666667</v>
       </c>
       <c r="D156">
-        <v>5.019458333333332</v>
+        <v>5.019458333333334</v>
       </c>
       <c r="E156">
-        <v>-3.523083333333333</v>
+        <v>-3.523083333333334</v>
       </c>
       <c r="F156">
         <v>93.79166666666667</v>
@@ -4003,10 +4003,10 @@
         <v>3.195958333333333</v>
       </c>
       <c r="D157">
-        <v>4.769291666666668</v>
+        <v>4.769291666666667</v>
       </c>
       <c r="E157">
-        <v>-4.509416666666666</v>
+        <v>-4.509416666666667</v>
       </c>
       <c r="F157">
         <v>91.70833333333333</v>
@@ -4026,7 +4026,7 @@
         <v>3.537208333333334</v>
       </c>
       <c r="D158">
-        <v>4.461874999999999</v>
+        <v>4.461875</v>
       </c>
       <c r="E158">
         <v>-9.417208333333333</v>
@@ -4049,7 +4049,7 @@
         <v>3.951791666666667</v>
       </c>
       <c r="D159">
-        <v>3.556291666666666</v>
+        <v>3.556291666666667</v>
       </c>
       <c r="E159">
         <v>-9.970416666666667</v>
@@ -4066,16 +4066,16 @@
         <v>44219</v>
       </c>
       <c r="B160">
-        <v>4.396208333333334</v>
+        <v>4.396208333333333</v>
       </c>
       <c r="C160">
         <v>3.991708333333333</v>
       </c>
       <c r="D160">
-        <v>3.143458333333334</v>
+        <v>3.143458333333333</v>
       </c>
       <c r="E160">
-        <v>-2.986749999999999</v>
+        <v>-2.98675</v>
       </c>
       <c r="F160">
         <v>93.33333333333333</v>
@@ -4089,7 +4089,7 @@
         <v>44220</v>
       </c>
       <c r="B161">
-        <v>4.566791666666667</v>
+        <v>4.566791666666666</v>
       </c>
       <c r="C161">
         <v>4.3555</v>
@@ -4098,7 +4098,7 @@
         <v>2.3585</v>
       </c>
       <c r="E161">
-        <v>0.5332499999999999</v>
+        <v>0.53325</v>
       </c>
       <c r="F161">
         <v>96.33333333333333</v>
@@ -4118,10 +4118,10 @@
         <v>4.576375</v>
       </c>
       <c r="D162">
-        <v>2.731083333333334</v>
+        <v>2.731083333333333</v>
       </c>
       <c r="E162">
-        <v>0.3883749999999999</v>
+        <v>0.388375</v>
       </c>
       <c r="F162">
         <v>97.625</v>
@@ -4138,13 +4138,13 @@
         <v>4.800291666666666</v>
       </c>
       <c r="C163">
-        <v>4.837083333333334</v>
+        <v>4.837083333333333</v>
       </c>
       <c r="D163">
         <v>2.844125</v>
       </c>
       <c r="E163">
-        <v>0.4143749999999999</v>
+        <v>0.414375</v>
       </c>
       <c r="F163">
         <v>94.70833333333333</v>
@@ -4167,7 +4167,7 @@
         <v>2.965583333333333</v>
       </c>
       <c r="E164">
-        <v>0.2362916666666668</v>
+        <v>0.2362916666666667</v>
       </c>
       <c r="F164">
         <v>98.25</v>
@@ -4207,10 +4207,10 @@
         <v>5.242708333333334</v>
       </c>
       <c r="C166">
-        <v>5.366000000000001</v>
+        <v>5.366</v>
       </c>
       <c r="D166">
-        <v>3.250625000000001</v>
+        <v>3.250625</v>
       </c>
       <c r="E166">
         <v>-2.829083333333333</v>
@@ -4227,7 +4227,7 @@
         <v>44226</v>
       </c>
       <c r="B167">
-        <v>5.461208333333332</v>
+        <v>5.461208333333333</v>
       </c>
       <c r="C167">
         <v>5.744333333333334</v>
@@ -4253,10 +4253,10 @@
         <v>5.485708333333334</v>
       </c>
       <c r="C168">
-        <v>5.686749999999999</v>
+        <v>5.68675</v>
       </c>
       <c r="D168">
-        <v>2.494083333333334</v>
+        <v>2.494083333333333</v>
       </c>
       <c r="E168">
         <v>-5.493041666666667</v>
@@ -4273,7 +4273,7 @@
         <v>44228</v>
       </c>
       <c r="B169">
-        <v>5.449708333333333</v>
+        <v>5.449708333333334</v>
       </c>
       <c r="C169">
         <v>5.529</v>
@@ -4296,7 +4296,7 @@
         <v>44229</v>
       </c>
       <c r="B170">
-        <v>5.279583333333332</v>
+        <v>5.279583333333333</v>
       </c>
       <c r="C170">
         <v>5.150708333333333</v>
@@ -4305,7 +4305,7 @@
         <v>3.013333333333333</v>
       </c>
       <c r="E170">
-        <v>-17.80416666666666</v>
+        <v>-17.80416666666667</v>
       </c>
       <c r="F170">
         <v>83.45833333333333</v>
@@ -4368,10 +4368,10 @@
         <v>4.372625</v>
       </c>
       <c r="C173">
-        <v>3.491083333333333</v>
+        <v>3.491083333333334</v>
       </c>
       <c r="D173">
-        <v>3.398833333333333</v>
+        <v>3.398833333333334</v>
       </c>
       <c r="E173">
         <v>-15.8525</v>
@@ -4391,10 +4391,10 @@
         <v>4.142</v>
       </c>
       <c r="C174">
-        <v>3.090583333333332</v>
+        <v>3.090583333333333</v>
       </c>
       <c r="D174">
-        <v>3.326083333333334</v>
+        <v>3.326083333333333</v>
       </c>
       <c r="E174">
         <v>-12.30708333333333</v>
@@ -4411,13 +4411,13 @@
         <v>44234</v>
       </c>
       <c r="B175">
-        <v>4.104916666666666</v>
+        <v>4.104916666666667</v>
       </c>
       <c r="C175">
-        <v>3.030250000000001</v>
+        <v>3.03025</v>
       </c>
       <c r="D175">
-        <v>2.968208333333334</v>
+        <v>2.968208333333333</v>
       </c>
       <c r="E175">
         <v>-8.535291666666668</v>
@@ -4440,7 +4440,7 @@
         <v>2.965458333333333</v>
       </c>
       <c r="D176">
-        <v>3.585333333333334</v>
+        <v>3.585333333333333</v>
       </c>
       <c r="E176">
         <v>-10.31416666666667</v>
